--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4127,28 +4127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11266.48452900977</v>
+        <v>11611.47796691938</v>
       </c>
       <c r="AB2" t="n">
-        <v>15415.30117480999</v>
+        <v>15887.33641659425</v>
       </c>
       <c r="AC2" t="n">
-        <v>13944.08646619663</v>
+        <v>14371.0713270106</v>
       </c>
       <c r="AD2" t="n">
-        <v>11266484.52900977</v>
+        <v>11611477.96691938</v>
       </c>
       <c r="AE2" t="n">
-        <v>15415301.17480999</v>
+        <v>15887336.41659425</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926041713025156e-07</v>
+        <v>5.660034626406635e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.41536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>13944086.46619663</v>
+        <v>14371071.3270106</v>
       </c>
     </row>
     <row r="3">
@@ -4233,28 +4233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5259.21042021905</v>
+        <v>5474.959274251566</v>
       </c>
       <c r="AB3" t="n">
-        <v>7195.883716932708</v>
+        <v>7491.080817187695</v>
       </c>
       <c r="AC3" t="n">
-        <v>6509.118674474606</v>
+        <v>6776.142577792978</v>
       </c>
       <c r="AD3" t="n">
-        <v>5259210.420219051</v>
+        <v>5474959.274251566</v>
       </c>
       <c r="AE3" t="n">
-        <v>7195883.716932708</v>
+        <v>7491080.817187695</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.228448101686283e-07</v>
+        <v>8.979331984009195e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.79231770833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>6509118.674474605</v>
+        <v>6776142.577792978</v>
       </c>
     </row>
     <row r="4">
@@ -4339,28 +4339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4232.094058854635</v>
+        <v>4421.942809500701</v>
       </c>
       <c r="AB4" t="n">
-        <v>5790.537798138015</v>
+        <v>6050.297234307739</v>
       </c>
       <c r="AC4" t="n">
-        <v>5237.896997754347</v>
+        <v>5472.86535791068</v>
       </c>
       <c r="AD4" t="n">
-        <v>4232094.058854635</v>
+        <v>4421942.809500701</v>
       </c>
       <c r="AE4" t="n">
-        <v>5790537.798138015</v>
+        <v>6050297.234307739</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121961043271318e-07</v>
+        <v>1.026747779553622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.67252604166666</v>
       </c>
       <c r="AH4" t="n">
-        <v>5237896.997754348</v>
+        <v>5472865.357910681</v>
       </c>
     </row>
     <row r="5">
@@ -4445,28 +4445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3790.899689722725</v>
+        <v>3972.029731718735</v>
       </c>
       <c r="AB5" t="n">
-        <v>5186.876198169843</v>
+        <v>5434.706312522283</v>
       </c>
       <c r="AC5" t="n">
-        <v>4691.848013642782</v>
+        <v>4916.025569713166</v>
       </c>
       <c r="AD5" t="n">
-        <v>3790899.689722725</v>
+        <v>3972029.731718735</v>
       </c>
       <c r="AE5" t="n">
-        <v>5186876.198169842</v>
+        <v>5434706.312522283</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.598127814648922e-07</v>
+        <v>1.095395048506473e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>40</v>
       </c>
       <c r="AH5" t="n">
-        <v>4691848.013642782</v>
+        <v>4916025.569713166</v>
       </c>
     </row>
     <row r="6">
@@ -4551,28 +4551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3539.875854521473</v>
+        <v>3712.45786957657</v>
       </c>
       <c r="AB6" t="n">
-        <v>4843.414312457451</v>
+        <v>5079.548639237001</v>
       </c>
       <c r="AC6" t="n">
-        <v>4381.16564825101</v>
+        <v>4594.763646299321</v>
       </c>
       <c r="AD6" t="n">
-        <v>3539875.854521473</v>
+        <v>3712457.869576571</v>
       </c>
       <c r="AE6" t="n">
-        <v>4843414.312457452</v>
+        <v>5079548.639237002</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.894098141171867e-07</v>
+        <v>1.138064037247755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.50260416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>4381165.64825101</v>
+        <v>4594763.646299321</v>
       </c>
     </row>
     <row r="7">
@@ -4657,28 +4657,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3359.600219000658</v>
+        <v>3523.463614914253</v>
       </c>
       <c r="AB7" t="n">
-        <v>4596.753234738129</v>
+        <v>4820.958362169942</v>
       </c>
       <c r="AC7" t="n">
-        <v>4158.045557598233</v>
+        <v>4360.852862341818</v>
       </c>
       <c r="AD7" t="n">
-        <v>3359600.219000658</v>
+        <v>3523463.614914253</v>
       </c>
       <c r="AE7" t="n">
-        <v>4596753.234738129</v>
+        <v>4820958.362169942</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.106972697787737e-07</v>
+        <v>1.168753404544324e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.490234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>4158045.557598233</v>
+        <v>4360852.862341817</v>
       </c>
     </row>
     <row r="8">
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3225.822088426834</v>
+        <v>3389.770735686449</v>
       </c>
       <c r="AB8" t="n">
-        <v>4413.712094612424</v>
+        <v>4638.033866696886</v>
       </c>
       <c r="AC8" t="n">
-        <v>3992.473606986279</v>
+        <v>4195.386423980576</v>
       </c>
       <c r="AD8" t="n">
-        <v>3225822.088426834</v>
+        <v>3389770.735686449</v>
       </c>
       <c r="AE8" t="n">
-        <v>4413712.094612424</v>
+        <v>4638033.866696887</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.251690049873088e-07</v>
+        <v>1.189616790206465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.83268229166666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3992473.606986279</v>
+        <v>4195386.423980576</v>
       </c>
     </row>
     <row r="9">
@@ -4869,28 +4869,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3123.371463340747</v>
+        <v>3287.149518399769</v>
       </c>
       <c r="AB9" t="n">
-        <v>4273.534629567045</v>
+        <v>4497.62298987666</v>
       </c>
       <c r="AC9" t="n">
-        <v>3865.674482464529</v>
+        <v>4068.376164176174</v>
       </c>
       <c r="AD9" t="n">
-        <v>3123371.463340747</v>
+        <v>3287149.518399769</v>
       </c>
       <c r="AE9" t="n">
-        <v>4273534.629567045</v>
+        <v>4497622.98987666</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.362795629861197e-07</v>
+        <v>1.205634486295463e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.34114583333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3865674.482464529</v>
+        <v>4068376.164176174</v>
       </c>
     </row>
     <row r="10">
@@ -4975,28 +4975,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3018.832606765793</v>
+        <v>3182.695913170837</v>
       </c>
       <c r="AB10" t="n">
-        <v>4130.499954072327</v>
+        <v>4354.704959034591</v>
       </c>
       <c r="AC10" t="n">
-        <v>3736.290835648603</v>
+        <v>3939.098029610961</v>
       </c>
       <c r="AD10" t="n">
-        <v>3018832.606765793</v>
+        <v>3182695.913170837</v>
       </c>
       <c r="AE10" t="n">
-        <v>4130499.954072326</v>
+        <v>4354704.959034591</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.457095323800682e-07</v>
+        <v>1.219229337597891e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.93424479166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3736290.835648603</v>
+        <v>3939098.029610962</v>
       </c>
     </row>
     <row r="11">
@@ -5081,28 +5081,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2925.624279325207</v>
+        <v>3081.024899643911</v>
       </c>
       <c r="AB11" t="n">
-        <v>4002.968208406918</v>
+        <v>4215.594192918491</v>
       </c>
       <c r="AC11" t="n">
-        <v>3620.930540797577</v>
+        <v>3813.2637997698</v>
       </c>
       <c r="AD11" t="n">
-        <v>2925624.279325207</v>
+        <v>3081024.899643911</v>
       </c>
       <c r="AE11" t="n">
-        <v>4002968.208406918</v>
+        <v>4215594.192918491</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.535522792027583e-07</v>
+        <v>1.23053594660189e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.60546875</v>
       </c>
       <c r="AH11" t="n">
-        <v>3620930.540797577</v>
+        <v>3813263.7997698</v>
       </c>
     </row>
     <row r="12">
@@ -5187,28 +5187,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2845.260894112353</v>
+        <v>3000.490922230464</v>
       </c>
       <c r="AB12" t="n">
-        <v>3893.011479376349</v>
+        <v>4105.404052113075</v>
       </c>
       <c r="AC12" t="n">
-        <v>3521.467927660451</v>
+        <v>3713.590051350024</v>
       </c>
       <c r="AD12" t="n">
-        <v>2845260.894112353</v>
+        <v>3000490.922230464</v>
       </c>
       <c r="AE12" t="n">
-        <v>3893011.479376349</v>
+        <v>4105404.052113075</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.593409732861723e-07</v>
+        <v>1.238881300866746e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>3521467.927660451</v>
+        <v>3713590.051350024</v>
       </c>
     </row>
     <row r="13">
@@ -5293,28 +5293,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2793.626003852752</v>
+        <v>2948.856031970862</v>
       </c>
       <c r="AB13" t="n">
-        <v>3822.362344552571</v>
+        <v>4034.754917289297</v>
       </c>
       <c r="AC13" t="n">
-        <v>3457.561447107574</v>
+        <v>3649.683570797147</v>
       </c>
       <c r="AD13" t="n">
-        <v>2793626.003852752</v>
+        <v>2948856.031970862</v>
       </c>
       <c r="AE13" t="n">
-        <v>3822362.344552571</v>
+        <v>4034754.917289297</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.636358108319311e-07</v>
+        <v>1.245073015321317e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.18880208333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3457561.447107574</v>
+        <v>3649683.570797147</v>
       </c>
     </row>
     <row r="14">
@@ -5399,28 +5399,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2784.272477945144</v>
+        <v>2939.502506063255</v>
       </c>
       <c r="AB14" t="n">
-        <v>3809.564437757342</v>
+        <v>4021.957010494068</v>
       </c>
       <c r="AC14" t="n">
-        <v>3445.984954574906</v>
+        <v>3638.10707826448</v>
       </c>
       <c r="AD14" t="n">
-        <v>2784272.477945144</v>
+        <v>2939502.506063255</v>
       </c>
       <c r="AE14" t="n">
-        <v>3809564.437757342</v>
+        <v>4021957.010494068</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.645694711679655e-07</v>
+        <v>1.246419040202745e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.15299479166666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3445984.954574906</v>
+        <v>3638107.07826448</v>
       </c>
     </row>
     <row r="15">
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2797.267188142559</v>
+        <v>2952.49721626067</v>
       </c>
       <c r="AB15" t="n">
-        <v>3827.3443735356</v>
+        <v>4039.736946272327</v>
       </c>
       <c r="AC15" t="n">
-        <v>3462.067998236784</v>
+        <v>3654.190121926357</v>
       </c>
       <c r="AD15" t="n">
-        <v>2797267.188142559</v>
+        <v>2952497.216260671</v>
       </c>
       <c r="AE15" t="n">
-        <v>3827344.3735356</v>
+        <v>4039736.946272327</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.643827391007586e-07</v>
+        <v>1.24614983522646e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.15950520833334</v>
       </c>
       <c r="AH15" t="n">
-        <v>3462067.998236784</v>
+        <v>3654190.121926357</v>
       </c>
     </row>
   </sheetData>
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7761.518067108424</v>
+        <v>8039.122452222934</v>
       </c>
       <c r="AB2" t="n">
-        <v>10619.65143342911</v>
+        <v>10999.48200018392</v>
       </c>
       <c r="AC2" t="n">
-        <v>9606.126805396629</v>
+        <v>9949.706875955895</v>
       </c>
       <c r="AD2" t="n">
-        <v>7761518.067108424</v>
+        <v>8039122.452222934</v>
       </c>
       <c r="AE2" t="n">
-        <v>10619651.43342911</v>
+        <v>10999482.00018392</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.825429340525388e-07</v>
+        <v>7.064247026930259e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.14973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9606126.805396629</v>
+        <v>9949706.875955895</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4207.075609711634</v>
+        <v>4400.505759276111</v>
       </c>
       <c r="AB3" t="n">
-        <v>5756.306452284481</v>
+        <v>6020.966116454545</v>
       </c>
       <c r="AC3" t="n">
-        <v>5206.932643505079</v>
+        <v>5446.333560778916</v>
       </c>
       <c r="AD3" t="n">
-        <v>4207075.609711634</v>
+        <v>4400505.759276112</v>
       </c>
       <c r="AE3" t="n">
-        <v>5756306.45228448</v>
+        <v>6020966.116454545</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.965771898292454e-07</v>
+        <v>1.019762801405545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.13671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>5206932.643505079</v>
+        <v>5446333.560778916</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3492.310971944152</v>
+        <v>3668.820933544053</v>
       </c>
       <c r="AB4" t="n">
-        <v>4778.333941700638</v>
+        <v>5019.842658231557</v>
       </c>
       <c r="AC4" t="n">
-        <v>4322.296456738357</v>
+        <v>4540.755920323168</v>
       </c>
       <c r="AD4" t="n">
-        <v>3492310.971944152</v>
+        <v>3668820.933544053</v>
       </c>
       <c r="AE4" t="n">
-        <v>4778333.941700638</v>
+        <v>5019842.658231557</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.765502781790258e-07</v>
+        <v>1.136840394245782e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.48828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4322296.456738357</v>
+        <v>4540755.920323168</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3162.911922000034</v>
+        <v>3331.004460044931</v>
       </c>
       <c r="AB5" t="n">
-        <v>4327.635629506608</v>
+        <v>4557.627255779053</v>
       </c>
       <c r="AC5" t="n">
-        <v>3914.612158901087</v>
+        <v>4122.653707157356</v>
       </c>
       <c r="AD5" t="n">
-        <v>3162911.922000034</v>
+        <v>3331004.460044931</v>
       </c>
       <c r="AE5" t="n">
-        <v>4327635.629506608</v>
+        <v>4557627.255779052</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.186617111748039e-07</v>
+        <v>1.198489947963589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.40494791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3914612.158901087</v>
+        <v>4122653.707157356</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2957.022659156605</v>
+        <v>3116.78311450107</v>
       </c>
       <c r="AB6" t="n">
-        <v>4045.928856890995</v>
+        <v>4264.520160027162</v>
       </c>
       <c r="AC6" t="n">
-        <v>3659.791085285981</v>
+        <v>3857.520341245645</v>
       </c>
       <c r="AD6" t="n">
-        <v>2957022.659156605</v>
+        <v>3116783.11450107</v>
       </c>
       <c r="AE6" t="n">
-        <v>4045928.856890995</v>
+        <v>4264520.160027162</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.451262355804075e-07</v>
+        <v>1.237233016125696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.20052083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>3659791.085285981</v>
+        <v>3857520.341245645</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2801.368576578908</v>
+        <v>2961.043691068802</v>
       </c>
       <c r="AB7" t="n">
-        <v>3832.9560741347</v>
+        <v>4051.43061014867</v>
       </c>
       <c r="AC7" t="n">
-        <v>3467.144126006777</v>
+        <v>3664.767758934503</v>
       </c>
       <c r="AD7" t="n">
-        <v>2801368.576578908</v>
+        <v>2961043.691068802</v>
       </c>
       <c r="AE7" t="n">
-        <v>3832956.0741347</v>
+        <v>4051430.61014867</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.633809622689442e-07</v>
+        <v>1.263957249274011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.416015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3467144.126006777</v>
+        <v>3664767.758934502</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2671.17734696927</v>
+        <v>2830.937712805184</v>
       </c>
       <c r="AB8" t="n">
-        <v>3654.822690151098</v>
+        <v>3873.413870817717</v>
       </c>
       <c r="AC8" t="n">
-        <v>3306.011542178802</v>
+        <v>3503.74068735724</v>
       </c>
       <c r="AD8" t="n">
-        <v>2671177.34696927</v>
+        <v>2830937.712805184</v>
       </c>
       <c r="AE8" t="n">
-        <v>3654822.690151098</v>
+        <v>3873413.870817717</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.760337093387766e-07</v>
+        <v>1.28248039500115e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.89192708333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3306011.542178802</v>
+        <v>3503740.68735724</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2568.229334305649</v>
+        <v>2719.742958295704</v>
       </c>
       <c r="AB9" t="n">
-        <v>3513.964677478945</v>
+        <v>3721.272302131486</v>
       </c>
       <c r="AC9" t="n">
-        <v>3178.596820540623</v>
+        <v>3366.119296454395</v>
       </c>
       <c r="AD9" t="n">
-        <v>2568229.334305649</v>
+        <v>2719742.958295704</v>
       </c>
       <c r="AE9" t="n">
-        <v>3513964.677478945</v>
+        <v>3721272.302131486</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.855957090327721e-07</v>
+        <v>1.296478802840744e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.50130208333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>3178596.820540622</v>
+        <v>3366119.296454395</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2521.761319118658</v>
+        <v>2673.104350908121</v>
       </c>
       <c r="AB10" t="n">
-        <v>3450.385089075955</v>
+        <v>3657.459301953649</v>
       </c>
       <c r="AC10" t="n">
-        <v>3121.085178820303</v>
+        <v>3308.396519451425</v>
       </c>
       <c r="AD10" t="n">
-        <v>2521761.319118659</v>
+        <v>2673104.350908122</v>
       </c>
       <c r="AE10" t="n">
-        <v>3450385.089075955</v>
+        <v>3657459.301953649</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.895557291080632e-07</v>
+        <v>1.302276123259161e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.34505208333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>3121085.178820303</v>
+        <v>3308396.519451425</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2532.668758960501</v>
+        <v>2684.011790749964</v>
       </c>
       <c r="AB11" t="n">
-        <v>3465.30912946985</v>
+        <v>3672.383342347543</v>
       </c>
       <c r="AC11" t="n">
-        <v>3134.584889745026</v>
+        <v>3321.896230376147</v>
       </c>
       <c r="AD11" t="n">
-        <v>2532668.758960501</v>
+        <v>2684011.790749964</v>
       </c>
       <c r="AE11" t="n">
-        <v>3465309.12946985</v>
+        <v>3672383.342347543</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.894591432525682e-07</v>
+        <v>1.302134725200175e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.34830729166666</v>
       </c>
       <c r="AH11" t="n">
-        <v>3134584.889745026</v>
+        <v>3321896.230376147</v>
       </c>
     </row>
   </sheetData>
@@ -7053,28 +7053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3013.914662199208</v>
+        <v>3200.158910111822</v>
       </c>
       <c r="AB2" t="n">
-        <v>4123.771005351922</v>
+        <v>4378.5986018623</v>
       </c>
       <c r="AC2" t="n">
-        <v>3730.204088349937</v>
+        <v>3960.711296702132</v>
       </c>
       <c r="AD2" t="n">
-        <v>3013914.662199208</v>
+        <v>3200158.910111822</v>
       </c>
       <c r="AE2" t="n">
-        <v>4123771.005351922</v>
+        <v>4378598.6018623</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.701654689926354e-07</v>
+        <v>1.191541044300536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.55013020833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3730204.088349937</v>
+        <v>3960711.296702132</v>
       </c>
     </row>
     <row r="3">
@@ -7159,28 +7159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2111.484313004647</v>
+        <v>2258.977547609186</v>
       </c>
       <c r="AB3" t="n">
-        <v>2889.025989166501</v>
+        <v>3090.832739694883</v>
       </c>
       <c r="AC3" t="n">
-        <v>2613.301403533892</v>
+        <v>2795.848001029282</v>
       </c>
       <c r="AD3" t="n">
-        <v>2111484.313004647</v>
+        <v>2258977.547609186</v>
       </c>
       <c r="AE3" t="n">
-        <v>2889025.989166501</v>
+        <v>3090832.739694883</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.227759229659872e-07</v>
+        <v>1.427648253750516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.02083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2613301.403533892</v>
+        <v>2795848.001029282</v>
       </c>
     </row>
     <row r="4">
@@ -7265,28 +7265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1920.738507324359</v>
+        <v>2068.231652420344</v>
       </c>
       <c r="AB4" t="n">
-        <v>2628.039162723693</v>
+        <v>2829.845790782345</v>
       </c>
       <c r="AC4" t="n">
-        <v>2377.222793509474</v>
+        <v>2559.76928022359</v>
       </c>
       <c r="AD4" t="n">
-        <v>1920738.507324359</v>
+        <v>2068231.652420344</v>
       </c>
       <c r="AE4" t="n">
-        <v>2628039.162723693</v>
+        <v>2829845.790782345</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.552164220097574e-07</v>
+        <v>1.477837709996592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.728515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2377222.793509474</v>
+        <v>2559769.28022359</v>
       </c>
     </row>
     <row r="5">
@@ -7371,28 +7371,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1932.790352811699</v>
+        <v>2080.283497907684</v>
       </c>
       <c r="AB5" t="n">
-        <v>2644.529029409369</v>
+        <v>2846.335657468022</v>
       </c>
       <c r="AC5" t="n">
-        <v>2392.138890462343</v>
+        <v>2574.685377176459</v>
       </c>
       <c r="AD5" t="n">
-        <v>1932790.352811699</v>
+        <v>2080283.497907684</v>
       </c>
       <c r="AE5" t="n">
-        <v>2644529.029409369</v>
+        <v>2846335.657468022</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.557553007314149e-07</v>
+        <v>1.478671421894367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.70572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2392138.890462343</v>
+        <v>2574685.377176459</v>
       </c>
     </row>
   </sheetData>
@@ -7668,28 +7668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4310.137412091831</v>
+        <v>4518.524923196598</v>
       </c>
       <c r="AB2" t="n">
-        <v>5897.320157066899</v>
+        <v>6182.44514316861</v>
       </c>
       <c r="AC2" t="n">
-        <v>5334.488198217036</v>
+        <v>5592.40125582062</v>
       </c>
       <c r="AD2" t="n">
-        <v>4310137.412091831</v>
+        <v>4518524.923196598</v>
       </c>
       <c r="AE2" t="n">
-        <v>5897320.157066899</v>
+        <v>6182445.143168611</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.542052516703994e-07</v>
+        <v>9.886964509708734e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.30208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5334488.198217036</v>
+        <v>5592401.255820621</v>
       </c>
     </row>
     <row r="3">
@@ -7774,28 +7774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2812.355877992867</v>
+        <v>2980.55072068434</v>
       </c>
       <c r="AB3" t="n">
-        <v>3847.989384654809</v>
+        <v>4078.12098865806</v>
       </c>
       <c r="AC3" t="n">
-        <v>3480.742678470229</v>
+        <v>3688.910845179137</v>
       </c>
       <c r="AD3" t="n">
-        <v>2812355.877992867</v>
+        <v>2980550.72068434</v>
       </c>
       <c r="AE3" t="n">
-        <v>3847989.384654809</v>
+        <v>4078120.98865806</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.319593657570452e-07</v>
+        <v>1.257335171455316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.341796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>3480742.678470229</v>
+        <v>3688910.845179137</v>
       </c>
     </row>
     <row r="4">
@@ -7880,28 +7880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2407.196333764859</v>
+        <v>2559.433586287414</v>
       </c>
       <c r="AB4" t="n">
-        <v>3293.632221864435</v>
+        <v>3501.92994699938</v>
       </c>
       <c r="AC4" t="n">
-        <v>2979.292585251425</v>
+        <v>3167.710667847176</v>
       </c>
       <c r="AD4" t="n">
-        <v>2407196.333764859</v>
+        <v>2559433.586287414</v>
       </c>
       <c r="AE4" t="n">
-        <v>3293632.221864435</v>
+        <v>3501929.94699938</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.953693310489752e-07</v>
+        <v>1.353166269539963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.48697916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2979292.585251425</v>
+        <v>3167710.667847176</v>
       </c>
     </row>
     <row r="5">
@@ -7986,28 +7986,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2183.572367157576</v>
+        <v>2327.87349502296</v>
       </c>
       <c r="AB5" t="n">
-        <v>2987.660045159033</v>
+        <v>3185.099214421098</v>
       </c>
       <c r="AC5" t="n">
-        <v>2702.521963656264</v>
+        <v>2881.117815711453</v>
       </c>
       <c r="AD5" t="n">
-        <v>2183572.367157576</v>
+        <v>2327873.49502296</v>
       </c>
       <c r="AE5" t="n">
-        <v>2987660.045159033</v>
+        <v>3185099.214421098</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.276413946853561e-07</v>
+        <v>1.401938844662719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.181640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2702521.963656264</v>
+        <v>2881117.815711453</v>
       </c>
     </row>
     <row r="6">
@@ -8092,28 +8092,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2134.827037523134</v>
+        <v>2287.064200537141</v>
       </c>
       <c r="AB6" t="n">
-        <v>2920.96453466102</v>
+        <v>3129.262137326587</v>
       </c>
       <c r="AC6" t="n">
-        <v>2642.191779072444</v>
+        <v>2830.609750887014</v>
       </c>
       <c r="AD6" t="n">
-        <v>2134827.037523134</v>
+        <v>2287064.20053714</v>
       </c>
       <c r="AE6" t="n">
-        <v>2920964.534661021</v>
+        <v>3129262.137326587</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.335184158587542e-07</v>
+        <v>1.410820751314466e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.95377604166666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2642191.779072444</v>
+        <v>2830609.750887014</v>
       </c>
     </row>
     <row r="7">
@@ -8198,28 +8198,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2146.934954196399</v>
+        <v>2299.172117210405</v>
       </c>
       <c r="AB7" t="n">
-        <v>2937.531120416966</v>
+        <v>3145.828723082534</v>
       </c>
       <c r="AC7" t="n">
-        <v>2657.177273135191</v>
+        <v>2845.595244949762</v>
       </c>
       <c r="AD7" t="n">
-        <v>2146934.954196399</v>
+        <v>2299172.117210405</v>
       </c>
       <c r="AE7" t="n">
-        <v>2937531.120416966</v>
+        <v>3145828.723082535</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.334153102241333e-07</v>
+        <v>1.410664928390751e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.96028645833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2657177.273135191</v>
+        <v>2845595.244949762</v>
       </c>
     </row>
   </sheetData>
@@ -8495,28 +8495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2208.568187707459</v>
+        <v>2374.691362015421</v>
       </c>
       <c r="AB2" t="n">
-        <v>3021.860429573332</v>
+        <v>3249.157485498706</v>
       </c>
       <c r="AC2" t="n">
-        <v>2733.458311382489</v>
+        <v>2939.062455303758</v>
       </c>
       <c r="AD2" t="n">
-        <v>2208568.187707459</v>
+        <v>2374691.362015421</v>
       </c>
       <c r="AE2" t="n">
-        <v>3021860.429573332</v>
+        <v>3249157.485498706</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.709598468474881e-07</v>
+        <v>1.376541578013025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.83268229166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2733458.311382489</v>
+        <v>2939062.455303758</v>
       </c>
     </row>
     <row r="3">
@@ -8601,28 +8601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1761.559846510484</v>
+        <v>1912.565397544164</v>
       </c>
       <c r="AB3" t="n">
-        <v>2410.243896531256</v>
+        <v>2616.856353350275</v>
       </c>
       <c r="AC3" t="n">
-        <v>2180.213601844867</v>
+        <v>2367.107255767484</v>
       </c>
       <c r="AD3" t="n">
-        <v>1761559.846510484</v>
+        <v>1912565.397544164</v>
       </c>
       <c r="AE3" t="n">
-        <v>2410243.896531256</v>
+        <v>2616856.353350275</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.650964913917288e-07</v>
+        <v>1.525323414166341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.75716145833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2180213.601844867</v>
+        <v>2367107.255767484</v>
       </c>
     </row>
     <row r="4">
@@ -8707,28 +8707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1777.49784445769</v>
+        <v>1928.50339549137</v>
       </c>
       <c r="AB4" t="n">
-        <v>2432.050968457468</v>
+        <v>2638.663425276487</v>
       </c>
       <c r="AC4" t="n">
-        <v>2199.939437432859</v>
+        <v>2386.833091355476</v>
       </c>
       <c r="AD4" t="n">
-        <v>1777497.84445769</v>
+        <v>1928503.39549137</v>
       </c>
       <c r="AE4" t="n">
-        <v>2432050.968457468</v>
+        <v>2638663.425276487</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.649845572127224e-07</v>
+        <v>1.525146503540713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.75716145833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2199939.437432859</v>
+        <v>2386833.091355476</v>
       </c>
     </row>
   </sheetData>
@@ -9004,28 +9004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8520.812146633922</v>
+        <v>8817.237857760188</v>
       </c>
       <c r="AB2" t="n">
-        <v>11658.55109072659</v>
+        <v>12064.13382606899</v>
       </c>
       <c r="AC2" t="n">
-        <v>10545.87533750643</v>
+        <v>10912.74982582668</v>
       </c>
       <c r="AD2" t="n">
-        <v>8520812.146633921</v>
+        <v>8817237.857760189</v>
       </c>
       <c r="AE2" t="n">
-        <v>11658551.09072659</v>
+        <v>12064133.82606899</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.583946115394052e-07</v>
+        <v>6.682872190728286e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.97200520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>10545875.33750643</v>
+        <v>10912749.82582668</v>
       </c>
     </row>
     <row r="3">
@@ -9110,28 +9110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4462.408726350749</v>
+        <v>4657.229676010856</v>
       </c>
       <c r="AB3" t="n">
-        <v>6105.664486972233</v>
+        <v>6372.227105190909</v>
       </c>
       <c r="AC3" t="n">
-        <v>5522.948437689302</v>
+        <v>5764.070693748161</v>
       </c>
       <c r="AD3" t="n">
-        <v>4462408.726350749</v>
+        <v>4657229.676010855</v>
       </c>
       <c r="AE3" t="n">
-        <v>6105664.486972233</v>
+        <v>6372227.105190909</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.769193344762319e-07</v>
+        <v>9.86871416429953e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.02864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>5522948.437689302</v>
+        <v>5764070.693748161</v>
       </c>
     </row>
     <row r="4">
@@ -9216,28 +9216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3676.376243622778</v>
+        <v>3854.163487123434</v>
       </c>
       <c r="AB4" t="n">
-        <v>5030.180166798027</v>
+        <v>5273.436516775259</v>
       </c>
       <c r="AC4" t="n">
-        <v>4550.106831580837</v>
+        <v>4770.147136928665</v>
       </c>
       <c r="AD4" t="n">
-        <v>3676376.243622778</v>
+        <v>3854163.487123434</v>
       </c>
       <c r="AE4" t="n">
-        <v>5030180.166798027</v>
+        <v>5273436.51677526</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.59619886652061e-07</v>
+        <v>1.107439417532255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.01888020833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4550106.831580837</v>
+        <v>4770147.136928665</v>
       </c>
     </row>
     <row r="5">
@@ -9322,28 +9322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3319.479259722556</v>
+        <v>3488.877571916791</v>
       </c>
       <c r="AB5" t="n">
-        <v>4541.857968242023</v>
+        <v>4773.636212312282</v>
       </c>
       <c r="AC5" t="n">
-        <v>4108.389418290528</v>
+        <v>4318.04707204952</v>
       </c>
       <c r="AD5" t="n">
-        <v>3319479.259722556</v>
+        <v>3488877.571916791</v>
       </c>
       <c r="AE5" t="n">
-        <v>4541857.968242023</v>
+        <v>4773636.212312282</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.028845273736753e-07</v>
+        <v>1.170514344034848e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.80533854166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4108389.418290528</v>
+        <v>4318047.072049521</v>
       </c>
     </row>
     <row r="6">
@@ -9428,28 +9428,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3106.911084421452</v>
+        <v>3267.920554817818</v>
       </c>
       <c r="AB6" t="n">
-        <v>4251.012812948998</v>
+        <v>4471.313073581832</v>
       </c>
       <c r="AC6" t="n">
-        <v>3845.30211641494</v>
+        <v>4044.577229366325</v>
       </c>
       <c r="AD6" t="n">
-        <v>3106911.084421452</v>
+        <v>3267920.554817819</v>
       </c>
       <c r="AE6" t="n">
-        <v>4251012.812948998</v>
+        <v>4471313.073581832</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.298770687088419e-07</v>
+        <v>1.209866399950183e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.54557291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3845302.11641494</v>
+        <v>4044577.229366325</v>
       </c>
     </row>
     <row r="7">
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2943.589445252711</v>
+        <v>3104.513574794506</v>
       </c>
       <c r="AB7" t="n">
-        <v>4027.548940996115</v>
+        <v>4247.732434506751</v>
       </c>
       <c r="AC7" t="n">
-        <v>3643.165322767734</v>
+        <v>3842.33481268718</v>
       </c>
       <c r="AD7" t="n">
-        <v>2943589.445252711</v>
+        <v>3104513.574794506</v>
       </c>
       <c r="AE7" t="n">
-        <v>4027548.940996115</v>
+        <v>4247732.434506751</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.491164332775244e-07</v>
+        <v>1.237915205762176e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.69596354166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3643165.322767735</v>
+        <v>3842334.81268718</v>
       </c>
     </row>
     <row r="8">
@@ -9640,28 +9640,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2822.848131367802</v>
+        <v>2975.298167765707</v>
       </c>
       <c r="AB8" t="n">
-        <v>3862.345348607945</v>
+        <v>4070.934214028507</v>
       </c>
       <c r="AC8" t="n">
-        <v>3493.7285293724</v>
+        <v>3682.409966233527</v>
       </c>
       <c r="AD8" t="n">
-        <v>2822848.131367802</v>
+        <v>2975298.167765707</v>
       </c>
       <c r="AE8" t="n">
-        <v>3862345.348607945</v>
+        <v>4070934.214028507</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.624212674817377e-07</v>
+        <v>1.257312141124699e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.12630208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3493728.5293724</v>
+        <v>3682409.966233526</v>
       </c>
     </row>
     <row r="9">
@@ -9746,28 +9746,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2701.984199949081</v>
+        <v>2862.822988636305</v>
       </c>
       <c r="AB9" t="n">
-        <v>3696.973985500512</v>
+        <v>3917.04071188895</v>
       </c>
       <c r="AC9" t="n">
-        <v>3344.13997705978</v>
+        <v>3543.203843947289</v>
       </c>
       <c r="AD9" t="n">
-        <v>2701984.199949082</v>
+        <v>2862822.988636305</v>
       </c>
       <c r="AE9" t="n">
-        <v>3696973.985500512</v>
+        <v>3917040.71188895</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.732374276621412e-07</v>
+        <v>1.273080872750348e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.68033854166666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3344139.97705978</v>
+        <v>3543203.843947289</v>
       </c>
     </row>
     <row r="10">
@@ -9852,28 +9852,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2617.714865152668</v>
+        <v>2770.079560696001</v>
       </c>
       <c r="AB10" t="n">
-        <v>3581.672963931383</v>
+        <v>3790.145062229747</v>
       </c>
       <c r="AC10" t="n">
-        <v>3239.843123163213</v>
+        <v>3428.418936992401</v>
       </c>
       <c r="AD10" t="n">
-        <v>2617714.865152668</v>
+        <v>2770079.560696002</v>
       </c>
       <c r="AE10" t="n">
-        <v>3581672.963931383</v>
+        <v>3790145.062229747</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.804162950385152e-07</v>
+        <v>1.283546845068256e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>3239843.123163213</v>
+        <v>3428418.936992401</v>
       </c>
     </row>
     <row r="11">
@@ -9958,28 +9958,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2588.805055156583</v>
+        <v>2741.169750699917</v>
       </c>
       <c r="AB11" t="n">
-        <v>3542.117286483934</v>
+        <v>3750.589384782298</v>
       </c>
       <c r="AC11" t="n">
-        <v>3204.062584054609</v>
+        <v>3392.638397883797</v>
       </c>
       <c r="AD11" t="n">
-        <v>2588805.055156583</v>
+        <v>2741169.750699917</v>
       </c>
       <c r="AE11" t="n">
-        <v>3542117.286483934</v>
+        <v>3750589.384782298</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.828092508306399e-07</v>
+        <v>1.287035502507559e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.29622395833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3204062.584054608</v>
+        <v>3392638.397883797</v>
       </c>
     </row>
     <row r="12">
@@ -10064,28 +10064,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2601.621464168823</v>
+        <v>2753.986159712156</v>
       </c>
       <c r="AB12" t="n">
-        <v>3559.653262714542</v>
+        <v>3768.125361012905</v>
       </c>
       <c r="AC12" t="n">
-        <v>3219.924951325664</v>
+        <v>3408.500765154852</v>
       </c>
       <c r="AD12" t="n">
-        <v>2601621.464168823</v>
+        <v>2753986.159712156</v>
       </c>
       <c r="AE12" t="n">
-        <v>3559653.262714542</v>
+        <v>3768125.361012905</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.82713532598955e-07</v>
+        <v>1.286895956209987e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.29622395833334</v>
       </c>
       <c r="AH12" t="n">
-        <v>3219924.951325664</v>
+        <v>3408500.765154852</v>
       </c>
     </row>
   </sheetData>
@@ -10361,28 +10361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1794.827882548489</v>
+        <v>1950.799802441266</v>
       </c>
       <c r="AB2" t="n">
-        <v>2455.76269112062</v>
+        <v>2669.170352913386</v>
       </c>
       <c r="AC2" t="n">
-        <v>2221.388146564652</v>
+        <v>2414.428480635451</v>
       </c>
       <c r="AD2" t="n">
-        <v>1794827.882548489</v>
+        <v>1950799.802441266</v>
       </c>
       <c r="AE2" t="n">
-        <v>2455762.69112062</v>
+        <v>2669170.352913386</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.34510340917679e-07</v>
+        <v>1.497305080459244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.89908854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2221388.146564652</v>
+        <v>2414428.480635451</v>
       </c>
     </row>
     <row r="3">
@@ -10467,28 +10467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1682.82819897371</v>
+        <v>1831.450097740014</v>
       </c>
       <c r="AB3" t="n">
-        <v>2302.519782976292</v>
+        <v>2505.870821603772</v>
       </c>
       <c r="AC3" t="n">
-        <v>2082.770526495846</v>
+        <v>2266.714027401694</v>
       </c>
       <c r="AD3" t="n">
-        <v>1682828.19897371</v>
+        <v>1831450.097740014</v>
       </c>
       <c r="AE3" t="n">
-        <v>2302519.782976292</v>
+        <v>2505870.821603772</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.644082569485093e-07</v>
+        <v>1.545208564891686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.66536458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2082770.526495846</v>
+        <v>2266714.027401694</v>
       </c>
     </row>
   </sheetData>
@@ -10764,28 +10764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5841.104610543078</v>
+        <v>6087.930313493122</v>
       </c>
       <c r="AB2" t="n">
-        <v>7992.057019493972</v>
+        <v>8329.774835451733</v>
       </c>
       <c r="AC2" t="n">
-        <v>7229.30631447564</v>
+        <v>7534.792816068314</v>
       </c>
       <c r="AD2" t="n">
-        <v>5841104.610543078</v>
+        <v>6087930.313493122</v>
       </c>
       <c r="AE2" t="n">
-        <v>7992057.019493972</v>
+        <v>8329774.835451734</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61255352863377e-07</v>
+        <v>8.333761925516869e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.71809895833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>7229306.31447564</v>
+        <v>7534792.816068314</v>
       </c>
     </row>
     <row r="3">
@@ -10870,28 +10870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3490.306809158115</v>
+        <v>3671.352150386947</v>
       </c>
       <c r="AB3" t="n">
-        <v>4775.591757759359</v>
+        <v>5023.305980785412</v>
       </c>
       <c r="AC3" t="n">
-        <v>4319.815982983754</v>
+        <v>4543.888708233286</v>
       </c>
       <c r="AD3" t="n">
-        <v>3490306.809158115</v>
+        <v>3671352.150386947</v>
       </c>
       <c r="AE3" t="n">
-        <v>4775591.757759359</v>
+        <v>5023305.980785412</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.591874267721108e-07</v>
+        <v>1.127274285988798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.66927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>4319815.982983754</v>
+        <v>4543888.708233286</v>
       </c>
     </row>
     <row r="4">
@@ -10976,28 +10976,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2949.555612194835</v>
+        <v>3122.197058892551</v>
       </c>
       <c r="AB4" t="n">
-        <v>4035.712113815037</v>
+        <v>4271.927757589957</v>
       </c>
       <c r="AC4" t="n">
-        <v>3650.549413829905</v>
+        <v>3864.220968093673</v>
       </c>
       <c r="AD4" t="n">
-        <v>2949555.612194835</v>
+        <v>3122197.058892551</v>
       </c>
       <c r="AE4" t="n">
-        <v>4035712.113815038</v>
+        <v>4271927.757589957</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.316331531700785e-07</v>
+        <v>1.234844829991924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.95182291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3650549.413829905</v>
+        <v>3864220.968093674</v>
       </c>
     </row>
     <row r="5">
@@ -11082,28 +11082,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2691.803279697654</v>
+        <v>2848.063731114547</v>
       </c>
       <c r="AB5" t="n">
-        <v>3683.044001262007</v>
+        <v>3896.846444615193</v>
       </c>
       <c r="AC5" t="n">
-        <v>3331.539450966143</v>
+        <v>3524.936889199308</v>
       </c>
       <c r="AD5" t="n">
-        <v>2691803.279697654</v>
+        <v>2848063.731114547</v>
       </c>
       <c r="AE5" t="n">
-        <v>3683044.001262006</v>
+        <v>3896846.444615193</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.686521232525566e-07</v>
+        <v>1.289812195883631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.294921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>3331539.450966143</v>
+        <v>3524936.889199308</v>
       </c>
     </row>
     <row r="6">
@@ -11188,28 +11188,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2500.22755523072</v>
+        <v>2648.340134680212</v>
       </c>
       <c r="AB6" t="n">
-        <v>3420.921643321861</v>
+        <v>3623.575808790508</v>
       </c>
       <c r="AC6" t="n">
-        <v>3094.433682976775</v>
+        <v>3277.746819319993</v>
       </c>
       <c r="AD6" t="n">
-        <v>2500227.55523072</v>
+        <v>2648340.134680212</v>
       </c>
       <c r="AE6" t="n">
-        <v>3420921.643321861</v>
+        <v>3623575.808790508</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.92634843117818e-07</v>
+        <v>1.325422774324226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.2890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>3094433.682976775</v>
+        <v>3277746.819319993</v>
       </c>
     </row>
     <row r="7">
@@ -11294,28 +11294,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2361.521304212654</v>
+        <v>2517.781666120997</v>
       </c>
       <c r="AB7" t="n">
-        <v>3231.137631391016</v>
+        <v>3444.939952274655</v>
       </c>
       <c r="AC7" t="n">
-        <v>2922.762390781083</v>
+        <v>3116.159718233022</v>
       </c>
       <c r="AD7" t="n">
-        <v>2361521.304212654</v>
+        <v>2517781.666120997</v>
       </c>
       <c r="AE7" t="n">
-        <v>3231137.631391016</v>
+        <v>3444939.952274655</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.074623338228965e-07</v>
+        <v>1.347439273028162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.69661458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2922762.390781084</v>
+        <v>3116159.718233021</v>
       </c>
     </row>
     <row r="8">
@@ -11400,28 +11400,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2334.376894651266</v>
+        <v>2482.574725446777</v>
       </c>
       <c r="AB8" t="n">
-        <v>3193.997452702289</v>
+        <v>3396.768262823583</v>
       </c>
       <c r="AC8" t="n">
-        <v>2889.166818619841</v>
+        <v>3072.585467213772</v>
       </c>
       <c r="AD8" t="n">
-        <v>2334376.894651265</v>
+        <v>2482574.725446777</v>
       </c>
       <c r="AE8" t="n">
-        <v>3193997.452702289</v>
+        <v>3396768.262823584</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.105472479964363e-07</v>
+        <v>1.352019886852471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.576171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>2889166.818619841</v>
+        <v>3072585.467213772</v>
       </c>
     </row>
     <row r="9">
@@ -11506,28 +11506,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2342.259286181091</v>
+        <v>2490.457116976603</v>
       </c>
       <c r="AB9" t="n">
-        <v>3204.782488539968</v>
+        <v>3407.553298661263</v>
       </c>
       <c r="AC9" t="n">
-        <v>2898.922545774064</v>
+        <v>3082.341194367995</v>
       </c>
       <c r="AD9" t="n">
-        <v>2342259.286181091</v>
+        <v>2490457.116976603</v>
       </c>
       <c r="AE9" t="n">
-        <v>3204782.488539968</v>
+        <v>3407553.298661263</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.110448147986201e-07</v>
+        <v>1.352758695533811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.556640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>2898922.545774064</v>
+        <v>3082341.194367995</v>
       </c>
     </row>
   </sheetData>
@@ -11803,28 +11803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7074.828845535</v>
+        <v>7342.215700573123</v>
       </c>
       <c r="AB2" t="n">
-        <v>9680.092945881921</v>
+        <v>10045.94343722061</v>
       </c>
       <c r="AC2" t="n">
-        <v>8756.238461222365</v>
+        <v>9087.172695142062</v>
       </c>
       <c r="AD2" t="n">
-        <v>7074828.845535</v>
+        <v>7342215.700573123</v>
       </c>
       <c r="AE2" t="n">
-        <v>9680092.945881922</v>
+        <v>10045943.43722061</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.072119962511438e-07</v>
+        <v>7.458260652181218e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.57161458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>8756238.461222365</v>
+        <v>9087172.695142062</v>
       </c>
     </row>
     <row r="3">
@@ -11909,28 +11909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3957.063877098205</v>
+        <v>4149.053584840916</v>
       </c>
       <c r="AB3" t="n">
-        <v>5414.229369983564</v>
+        <v>5676.918158105279</v>
       </c>
       <c r="AC3" t="n">
-        <v>4897.502917830775</v>
+        <v>5135.121056700173</v>
       </c>
       <c r="AD3" t="n">
-        <v>3957063.877098205</v>
+        <v>4149053.584840916</v>
       </c>
       <c r="AE3" t="n">
-        <v>5414229.369983563</v>
+        <v>5676918.158105279</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.171365306472824e-07</v>
+        <v>1.054508018008321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.2578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4897502.917830775</v>
+        <v>5135121.056700173</v>
       </c>
     </row>
     <row r="4">
@@ -12015,28 +12015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3307.120534828068</v>
+        <v>3482.478481673505</v>
       </c>
       <c r="AB4" t="n">
-        <v>4524.948215612922</v>
+        <v>4764.880694733482</v>
       </c>
       <c r="AC4" t="n">
-        <v>4093.093508719362</v>
+        <v>4310.127168779995</v>
       </c>
       <c r="AD4" t="n">
-        <v>3307120.534828068</v>
+        <v>3482478.481673506</v>
       </c>
       <c r="AE4" t="n">
-        <v>4524948.215612923</v>
+        <v>4764880.694733482</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.940666085100567e-07</v>
+        <v>1.16762927242145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.970703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4093093.508719361</v>
+        <v>4310127.168779995</v>
       </c>
     </row>
     <row r="5">
@@ -12121,28 +12121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3008.6110357298</v>
+        <v>3167.337400695068</v>
       </c>
       <c r="AB5" t="n">
-        <v>4116.514349636993</v>
+        <v>4333.690764695493</v>
       </c>
       <c r="AC5" t="n">
-        <v>3723.639997671659</v>
+        <v>3920.08940048598</v>
       </c>
       <c r="AD5" t="n">
-        <v>3008611.0357298</v>
+        <v>3167337.400695067</v>
       </c>
       <c r="AE5" t="n">
-        <v>4116514.349636992</v>
+        <v>4333690.764695494</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.346279676873877e-07</v>
+        <v>1.227272417967536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.02734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3723639.997671659</v>
+        <v>3920089.40048598</v>
       </c>
     </row>
     <row r="6">
@@ -12227,28 +12227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2808.679423857393</v>
+        <v>2967.405699314109</v>
       </c>
       <c r="AB6" t="n">
-        <v>3842.959097912943</v>
+        <v>4060.135390501895</v>
       </c>
       <c r="AC6" t="n">
-        <v>3476.192475234956</v>
+        <v>3672.641767268051</v>
       </c>
       <c r="AD6" t="n">
-        <v>2808679.423857393</v>
+        <v>2967405.699314109</v>
       </c>
       <c r="AE6" t="n">
-        <v>3842959.097912943</v>
+        <v>4060135.390501895</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.595888041042069e-07</v>
+        <v>1.263975892149743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.923828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3476192.475234956</v>
+        <v>3672641.767268051</v>
       </c>
     </row>
     <row r="7">
@@ -12333,28 +12333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2658.181068970186</v>
+        <v>2808.548927813806</v>
       </c>
       <c r="AB7" t="n">
-        <v>3637.040609237431</v>
+        <v>3842.780547469028</v>
       </c>
       <c r="AC7" t="n">
-        <v>3289.926558110228</v>
+        <v>3476.030965394811</v>
       </c>
       <c r="AD7" t="n">
-        <v>2658181.068970186</v>
+        <v>2808548.927813806</v>
       </c>
       <c r="AE7" t="n">
-        <v>3637040.609237431</v>
+        <v>3842780.547469028</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.775294052787956e-07</v>
+        <v>1.290356514218204e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.16861979166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>3289926.558110228</v>
+        <v>3476030.965394811</v>
       </c>
     </row>
     <row r="8">
@@ -12439,28 +12439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2527.984994526051</v>
+        <v>2686.625929128195</v>
       </c>
       <c r="AB8" t="n">
-        <v>3458.900596337532</v>
+        <v>3675.960121804286</v>
       </c>
       <c r="AC8" t="n">
-        <v>3128.787978020424</v>
+        <v>3325.13164702158</v>
       </c>
       <c r="AD8" t="n">
-        <v>2527984.994526051</v>
+        <v>2686625.929128195</v>
       </c>
       <c r="AE8" t="n">
-        <v>3458900.596337532</v>
+        <v>3675960.121804286</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.903023332889646e-07</v>
+        <v>1.30913837014738e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.65104166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3128787.978020424</v>
+        <v>3325131.64702158</v>
       </c>
     </row>
     <row r="9">
@@ -12545,28 +12545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2465.470452036223</v>
+        <v>2615.752970025272</v>
       </c>
       <c r="AB9" t="n">
-        <v>3373.365441355975</v>
+        <v>3578.988612465375</v>
       </c>
       <c r="AC9" t="n">
-        <v>3051.416178180967</v>
+        <v>3237.41496243361</v>
       </c>
       <c r="AD9" t="n">
-        <v>2465470.452036223</v>
+        <v>2615752.970025272</v>
       </c>
       <c r="AE9" t="n">
-        <v>3373365.441355975</v>
+        <v>3578988.612465375</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.956650129878906e-07</v>
+        <v>1.317023882178713e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.43619791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3051416.178180967</v>
+        <v>3237414.96243361</v>
       </c>
     </row>
     <row r="10">
@@ -12651,28 +12651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2464.860671052331</v>
+        <v>2615.14318904138</v>
       </c>
       <c r="AB10" t="n">
-        <v>3372.531112112176</v>
+        <v>3578.154283221576</v>
       </c>
       <c r="AC10" t="n">
-        <v>3050.661476149207</v>
+        <v>3236.660260401851</v>
       </c>
       <c r="AD10" t="n">
-        <v>2464860.671052331</v>
+        <v>2615143.18904138</v>
       </c>
       <c r="AE10" t="n">
-        <v>3372531.112112176</v>
+        <v>3578154.283221576</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.966400456604225e-07</v>
+        <v>1.318457611638956e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.39713541666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3050661.476149207</v>
+        <v>3236660.260401851</v>
       </c>
     </row>
   </sheetData>
@@ -12948,28 +12948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10254.00987988188</v>
+        <v>10579.86976474323</v>
       </c>
       <c r="AB2" t="n">
-        <v>14029.98869264407</v>
+        <v>14475.84456303491</v>
       </c>
       <c r="AC2" t="n">
-        <v>12690.98626303039</v>
+        <v>13094.29027491376</v>
       </c>
       <c r="AD2" t="n">
-        <v>10254009.87988188</v>
+        <v>10579869.76474323</v>
       </c>
       <c r="AE2" t="n">
-        <v>14029988.69264407</v>
+        <v>14475844.56303491</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.139063573007965e-07</v>
+        <v>5.988283380768358e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.01692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12690986.26303039</v>
+        <v>13094290.27491376</v>
       </c>
     </row>
     <row r="3">
@@ -13054,28 +13054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4979.244137560856</v>
+        <v>5193.623336059942</v>
       </c>
       <c r="AB3" t="n">
-        <v>6812.821497759059</v>
+        <v>7106.144574888269</v>
       </c>
       <c r="AC3" t="n">
-        <v>6162.615375867703</v>
+        <v>6427.944110197214</v>
       </c>
       <c r="AD3" t="n">
-        <v>4979244.137560856</v>
+        <v>5193623.336059942</v>
       </c>
       <c r="AE3" t="n">
-        <v>6812821.497759059</v>
+        <v>7106144.574888268</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.4052902860146e-07</v>
+        <v>9.266997883017154e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.82877604166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>6162615.375867703</v>
+        <v>6427944.110197214</v>
       </c>
     </row>
     <row r="4">
@@ -13160,28 +13160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4048.024125831864</v>
+        <v>4228.160773860756</v>
       </c>
       <c r="AB4" t="n">
-        <v>5538.685195183922</v>
+        <v>5785.156104085101</v>
       </c>
       <c r="AC4" t="n">
-        <v>5010.080853748852</v>
+        <v>5233.028925028589</v>
       </c>
       <c r="AD4" t="n">
-        <v>4048024.125831864</v>
+        <v>4228160.773860756</v>
       </c>
       <c r="AE4" t="n">
-        <v>5538685.195183922</v>
+        <v>5785156.104085101</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.273006660346876e-07</v>
+        <v>1.052238607698451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.11914062499999</v>
       </c>
       <c r="AH4" t="n">
-        <v>5010080.853748852</v>
+        <v>5233028.925028589</v>
       </c>
     </row>
     <row r="5">
@@ -13266,28 +13266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3633.949286716803</v>
+        <v>3805.589190883387</v>
       </c>
       <c r="AB5" t="n">
-        <v>4972.129732614029</v>
+        <v>5206.975021712915</v>
       </c>
       <c r="AC5" t="n">
-        <v>4497.596649361068</v>
+        <v>4710.02863367578</v>
       </c>
       <c r="AD5" t="n">
-        <v>3633949.286716803</v>
+        <v>3805589.190883387</v>
       </c>
       <c r="AE5" t="n">
-        <v>4972129.732614029</v>
+        <v>5206975.021712915</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.737921941171327e-07</v>
+        <v>1.119501272320997e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.59309895833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4497596.649361067</v>
+        <v>4710028.63367578</v>
       </c>
     </row>
     <row r="6">
@@ -13372,28 +13372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3395.46828402334</v>
+        <v>3558.440941635575</v>
       </c>
       <c r="AB6" t="n">
-        <v>4645.829503689515</v>
+        <v>4868.815883680806</v>
       </c>
       <c r="AC6" t="n">
-        <v>4202.438056319873</v>
+        <v>4404.142929168137</v>
       </c>
       <c r="AD6" t="n">
-        <v>3395468.28402334</v>
+        <v>3558440.941635575</v>
       </c>
       <c r="AE6" t="n">
-        <v>4645829.503689515</v>
+        <v>4868815.883680806</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028729272699171e-07</v>
+        <v>1.16157447752012e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.15755208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4202438.056319873</v>
+        <v>4404142.929168137</v>
       </c>
     </row>
     <row r="7">
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3224.155109583198</v>
+        <v>3387.04242634086</v>
       </c>
       <c r="AB7" t="n">
-        <v>4411.431260616645</v>
+        <v>4634.300873485739</v>
       </c>
       <c r="AC7" t="n">
-        <v>3990.410452585886</v>
+        <v>4192.009702402212</v>
       </c>
       <c r="AD7" t="n">
-        <v>3224155.109583198</v>
+        <v>3387042.42634086</v>
       </c>
       <c r="AE7" t="n">
-        <v>4411431.260616645</v>
+        <v>4634300.873485738</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.190576395667088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.2265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>3990410.452585886</v>
+        <v>4192009.702402212</v>
       </c>
     </row>
     <row r="8">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3089.520446012277</v>
+        <v>3252.49301411596</v>
       </c>
       <c r="AB8" t="n">
-        <v>4227.218174256744</v>
+        <v>4450.204431778487</v>
       </c>
       <c r="AC8" t="n">
-        <v>3823.77840464349</v>
+        <v>4025.483166710529</v>
       </c>
       <c r="AD8" t="n">
-        <v>3089520.446012277</v>
+        <v>3252493.01411596</v>
       </c>
       <c r="AE8" t="n">
-        <v>4227218.174256744</v>
+        <v>4450204.431778487</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.373180675091375e-07</v>
+        <v>1.211408759406459e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.58528645833334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3823778.40464349</v>
+        <v>4025483.166710529</v>
       </c>
     </row>
     <row r="9">
@@ -13690,28 +13690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2985.788873272646</v>
+        <v>3140.179535676551</v>
       </c>
       <c r="AB9" t="n">
-        <v>4085.288060120364</v>
+        <v>4296.532175656712</v>
       </c>
       <c r="AC9" t="n">
-        <v>3695.393901400126</v>
+        <v>3886.477175032655</v>
       </c>
       <c r="AD9" t="n">
-        <v>2985788.873272646</v>
+        <v>3140179.535676552</v>
       </c>
       <c r="AE9" t="n">
-        <v>4085288.060120364</v>
+        <v>4296532.175656712</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48329218897085e-07</v>
+        <v>1.227339390501273e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.11328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>3695393.901400126</v>
+        <v>3886477.175032655</v>
       </c>
     </row>
     <row r="10">
@@ -13796,28 +13796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2884.793108392616</v>
+        <v>3047.680335641726</v>
       </c>
       <c r="AB10" t="n">
-        <v>3947.101198992813</v>
+        <v>4169.970689392359</v>
       </c>
       <c r="AC10" t="n">
-        <v>3570.395400352115</v>
+        <v>3771.994539387215</v>
       </c>
       <c r="AD10" t="n">
-        <v>2884793.108392616</v>
+        <v>3047680.335641726</v>
       </c>
       <c r="AE10" t="n">
-        <v>3947101.198992813</v>
+        <v>4169970.689392358</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.570816725644279e-07</v>
+        <v>1.240002199833048e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.74544270833334</v>
       </c>
       <c r="AH10" t="n">
-        <v>3570395.400352115</v>
+        <v>3771994.539387215</v>
       </c>
     </row>
     <row r="11">
@@ -13902,28 +13902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2797.250757886347</v>
+        <v>2951.55607943568</v>
       </c>
       <c r="AB11" t="n">
-        <v>3827.321892934199</v>
+        <v>4038.449241348348</v>
       </c>
       <c r="AC11" t="n">
-        <v>3462.047663152428</v>
+        <v>3653.025313753018</v>
       </c>
       <c r="AD11" t="n">
-        <v>2797250.757886347</v>
+        <v>2951556.07943568</v>
       </c>
       <c r="AE11" t="n">
-        <v>3827321.892934199</v>
+        <v>4038449.241348348</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.639518781312671e-07</v>
+        <v>1.24994182436229e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.458984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>3462047.663152428</v>
+        <v>3653025.313753018</v>
       </c>
     </row>
     <row r="12">
@@ -14008,28 +14008,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2729.91562175207</v>
+        <v>2884.220943301404</v>
       </c>
       <c r="AB12" t="n">
-        <v>3735.190989058725</v>
+        <v>3946.318337472875</v>
       </c>
       <c r="AC12" t="n">
-        <v>3378.709603436298</v>
+        <v>3569.687254036888</v>
       </c>
       <c r="AD12" t="n">
-        <v>2729915.62175207</v>
+        <v>2884220.943301404</v>
       </c>
       <c r="AE12" t="n">
-        <v>3735190.989058726</v>
+        <v>3946318.337472875</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.690339480026275e-07</v>
+        <v>1.257294423329127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.25390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3378709.603436298</v>
+        <v>3569687.254036888</v>
       </c>
     </row>
     <row r="13">
@@ -14114,28 +14114,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2720.930427093041</v>
+        <v>2875.235748642374</v>
       </c>
       <c r="AB13" t="n">
-        <v>3722.897049327429</v>
+        <v>3934.024397741579</v>
       </c>
       <c r="AC13" t="n">
-        <v>3367.588980058305</v>
+        <v>3558.566630658894</v>
       </c>
       <c r="AD13" t="n">
-        <v>2720930.427093041</v>
+        <v>2875235.748642374</v>
       </c>
       <c r="AE13" t="n">
-        <v>3722897.049327429</v>
+        <v>3934024.397741579</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.258656015730393e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.21484375</v>
       </c>
       <c r="AH13" t="n">
-        <v>3367588.980058304</v>
+        <v>3558566.630658894</v>
       </c>
     </row>
     <row r="14">
@@ -14220,28 +14220,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2732.66588361857</v>
+        <v>2886.971205167903</v>
       </c>
       <c r="AB14" t="n">
-        <v>3738.95401867746</v>
+        <v>3950.08136709161</v>
       </c>
       <c r="AC14" t="n">
-        <v>3382.113494789666</v>
+        <v>3573.091145390255</v>
       </c>
       <c r="AD14" t="n">
-        <v>2732665.88361857</v>
+        <v>2886971.205167903</v>
       </c>
       <c r="AE14" t="n">
-        <v>3738954.01867746</v>
+        <v>3950081.36709161</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.699750720528793e-07</v>
+        <v>1.258656015730393e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.21484375</v>
       </c>
       <c r="AH14" t="n">
-        <v>3382113.494789666</v>
+        <v>3573091.145390255</v>
       </c>
     </row>
   </sheetData>
@@ -14517,28 +14517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4784.01902527689</v>
+        <v>5002.43528237267</v>
       </c>
       <c r="AB2" t="n">
-        <v>6545.705886408024</v>
+        <v>6844.552645211686</v>
       </c>
       <c r="AC2" t="n">
-        <v>5920.992903564906</v>
+        <v>6191.318147142394</v>
       </c>
       <c r="AD2" t="n">
-        <v>4784019.02527689</v>
+        <v>5002435.28237267</v>
       </c>
       <c r="AE2" t="n">
-        <v>6545705.886408024</v>
+        <v>6844552.645211685</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.215819555606216e-07</v>
+        <v>9.334200590270555e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5920992.903564906</v>
+        <v>6191318.147142394</v>
       </c>
     </row>
     <row r="3">
@@ -14623,28 +14623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3039.740186016335</v>
+        <v>3209.58158771292</v>
       </c>
       <c r="AB3" t="n">
-        <v>4159.106626380218</v>
+        <v>4391.491125055321</v>
       </c>
       <c r="AC3" t="n">
-        <v>3762.167327301145</v>
+        <v>3972.37337557638</v>
       </c>
       <c r="AD3" t="n">
-        <v>3039740.186016335</v>
+        <v>3209581.58771292</v>
       </c>
       <c r="AE3" t="n">
-        <v>4159106.626380218</v>
+        <v>4391491.125055321</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.063765909975631e-07</v>
+        <v>1.210923319818883e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.10026041666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3762167.327301145</v>
+        <v>3972373.37557638</v>
       </c>
     </row>
     <row r="4">
@@ -14729,28 +14729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2590.894927287857</v>
+        <v>2752.640430242693</v>
       </c>
       <c r="AB4" t="n">
-        <v>3544.976741732595</v>
+        <v>3766.284074583391</v>
       </c>
       <c r="AC4" t="n">
-        <v>3206.649136907608</v>
+        <v>3406.835208517908</v>
       </c>
       <c r="AD4" t="n">
-        <v>2590894.927287857</v>
+        <v>2752640.430242693</v>
       </c>
       <c r="AE4" t="n">
-        <v>3544976.741732595</v>
+        <v>3766284.074583391</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.725564879859994e-07</v>
+        <v>1.310304652884826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.98177083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3206649.136907608</v>
+        <v>3406835.208517908</v>
       </c>
     </row>
     <row r="5">
@@ -14835,28 +14835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2347.884127216818</v>
+        <v>2501.619161793026</v>
       </c>
       <c r="AB5" t="n">
-        <v>3212.478644195523</v>
+        <v>3422.825700813757</v>
       </c>
       <c r="AC5" t="n">
-        <v>2905.884191135475</v>
+        <v>3096.156019894005</v>
       </c>
       <c r="AD5" t="n">
-        <v>2347884.127216818</v>
+        <v>2501619.161793026</v>
       </c>
       <c r="AE5" t="n">
-        <v>3212478.644195523</v>
+        <v>3422825.700813757</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.07886371455211e-07</v>
+        <v>1.363358995306184e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.50716145833334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2905884.191135475</v>
+        <v>3096156.019894005</v>
       </c>
     </row>
     <row r="6">
@@ -14941,28 +14941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2206.41015360202</v>
+        <v>2360.059847323656</v>
       </c>
       <c r="AB6" t="n">
-        <v>3018.907712104524</v>
+        <v>3229.138001600561</v>
       </c>
       <c r="AC6" t="n">
-        <v>2730.78739712474</v>
+        <v>2920.953602851332</v>
       </c>
       <c r="AD6" t="n">
-        <v>2206410.15360202</v>
+        <v>2360059.847323657</v>
       </c>
       <c r="AE6" t="n">
-        <v>3018907.712104524</v>
+        <v>3229138.001600561</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.245840685415241e-07</v>
+        <v>1.388433670110515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.84635416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2730787.39712474</v>
+        <v>2920953.602851332</v>
       </c>
     </row>
     <row r="7">
@@ -15047,28 +15047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2206.330062827789</v>
+        <v>2359.979756549426</v>
       </c>
       <c r="AB7" t="n">
-        <v>3018.798128373866</v>
+        <v>3229.028417869903</v>
       </c>
       <c r="AC7" t="n">
-        <v>2730.688271911535</v>
+        <v>2920.854477638126</v>
       </c>
       <c r="AD7" t="n">
-        <v>2206330.062827789</v>
+        <v>2359979.756549426</v>
       </c>
       <c r="AE7" t="n">
-        <v>3018798.128373866</v>
+        <v>3229028.417869903</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.257040360290207e-07</v>
+        <v>1.390115508054707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.80403645833334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2730688.271911534</v>
+        <v>2920854.477638126</v>
       </c>
     </row>
   </sheetData>
@@ -15344,28 +15344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3428.239346428096</v>
+        <v>3616.665362037434</v>
       </c>
       <c r="AB2" t="n">
-        <v>4690.668317028941</v>
+        <v>4948.481104354775</v>
       </c>
       <c r="AC2" t="n">
-        <v>4242.997516245852</v>
+        <v>4476.20501299182</v>
       </c>
       <c r="AD2" t="n">
-        <v>3428239.346428096</v>
+        <v>3616665.362037434</v>
       </c>
       <c r="AE2" t="n">
-        <v>4690668.317028941</v>
+        <v>4948481.104354776</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.280862147040754e-07</v>
+        <v>1.116699864707979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.41861979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4242997.516245852</v>
+        <v>4476205.01299182</v>
       </c>
     </row>
     <row r="3">
@@ -15450,28 +15450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2346.386817786184</v>
+        <v>2503.465316773221</v>
       </c>
       <c r="AB3" t="n">
-        <v>3210.429959375899</v>
+        <v>3425.35169150427</v>
       </c>
       <c r="AC3" t="n">
-        <v>2904.03102991969</v>
+        <v>3098.440933578266</v>
       </c>
       <c r="AD3" t="n">
-        <v>2346386.817786184</v>
+        <v>2503465.316773221</v>
       </c>
       <c r="AE3" t="n">
-        <v>3210429.959375899</v>
+        <v>3425351.69150427</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.897181726369248e-07</v>
+        <v>1.364602354702874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.80208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2904031.02991969</v>
+        <v>3098440.933578266</v>
       </c>
     </row>
     <row r="4">
@@ -15556,28 +15556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2024.272795865106</v>
+        <v>2173.493102860063</v>
       </c>
       <c r="AB4" t="n">
-        <v>2769.699343915588</v>
+        <v>2973.869151081419</v>
       </c>
       <c r="AC4" t="n">
-        <v>2505.363125829728</v>
+        <v>2690.047253153775</v>
       </c>
       <c r="AD4" t="n">
-        <v>2024272.795865106</v>
+        <v>2173493.102860063</v>
       </c>
       <c r="AE4" t="n">
-        <v>2769699.343915588</v>
+        <v>2973869.151081419</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.437015496630538e-07</v>
+        <v>1.447399183710356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.58203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2505363.125829728</v>
+        <v>2690047.253153775</v>
       </c>
     </row>
     <row r="5">
@@ -15662,28 +15662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2002.170401588524</v>
+        <v>2151.220116382889</v>
       </c>
       <c r="AB5" t="n">
-        <v>2739.457872977551</v>
+        <v>2943.394268368534</v>
       </c>
       <c r="AC5" t="n">
-        <v>2478.007858433845</v>
+        <v>2662.480850475242</v>
       </c>
       <c r="AD5" t="n">
-        <v>2002170.401588524</v>
+        <v>2151220.116382889</v>
       </c>
       <c r="AE5" t="n">
-        <v>2739457.872977551</v>
+        <v>2943394.268368534</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.484741468461101e-07</v>
+        <v>1.454719139123591e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.396484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2478007.858433845</v>
+        <v>2662480.850475242</v>
       </c>
     </row>
   </sheetData>
@@ -28668,28 +28668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2609.510980384344</v>
+        <v>2785.710280747303</v>
       </c>
       <c r="AB2" t="n">
-        <v>3570.44804686151</v>
+        <v>3811.53170298264</v>
       </c>
       <c r="AC2" t="n">
-        <v>3229.68949642422</v>
+        <v>3447.764466768177</v>
       </c>
       <c r="AD2" t="n">
-        <v>2609510.980384344</v>
+        <v>2785710.280747303</v>
       </c>
       <c r="AE2" t="n">
-        <v>3570448.04686151</v>
+        <v>3811531.70298264</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.173530840053708e-07</v>
+        <v>1.277098071170026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.69466145833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3229689.49642422</v>
+        <v>3447764.466768177</v>
       </c>
     </row>
     <row r="3">
@@ -28774,28 +28774,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1879.644187471537</v>
+        <v>2025.170536982682</v>
       </c>
       <c r="AB3" t="n">
-        <v>2571.812101347622</v>
+        <v>2770.927672918198</v>
       </c>
       <c r="AC3" t="n">
-        <v>2326.361963955959</v>
+        <v>2506.474224836299</v>
       </c>
       <c r="AD3" t="n">
-        <v>1879644.187471537</v>
+        <v>2025170.536982682</v>
       </c>
       <c r="AE3" t="n">
-        <v>2571812.101347622</v>
+        <v>2770927.672918198</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.549317104943286e-07</v>
+        <v>1.492061961270323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.39908854166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2326361.963955959</v>
+        <v>2506474.224836299</v>
       </c>
     </row>
     <row r="4">
@@ -28880,28 +28880,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1853.667800181716</v>
+        <v>1999.19414969286</v>
       </c>
       <c r="AB4" t="n">
-        <v>2536.270062260362</v>
+        <v>2735.385633830937</v>
       </c>
       <c r="AC4" t="n">
-        <v>2294.212007195622</v>
+        <v>2474.324268075962</v>
       </c>
       <c r="AD4" t="n">
-        <v>1853667.800181716</v>
+        <v>1999194.14969286</v>
       </c>
       <c r="AE4" t="n">
-        <v>2536270.062260362</v>
+        <v>2735385.633830938</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.617338435424271e-07</v>
+        <v>1.502690159983416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.13541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2294212.007195622</v>
+        <v>2474324.268075962</v>
       </c>
     </row>
   </sheetData>
@@ -29177,28 +29177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1582.817458812563</v>
+        <v>1735.688405099858</v>
       </c>
       <c r="AB2" t="n">
-        <v>2165.68067612535</v>
+        <v>2374.845449025795</v>
       </c>
       <c r="AC2" t="n">
-        <v>1958.991151947865</v>
+        <v>2148.193532487295</v>
       </c>
       <c r="AD2" t="n">
-        <v>1582817.458812563</v>
+        <v>1735688.405099858</v>
       </c>
       <c r="AE2" t="n">
-        <v>2165680.676125349</v>
+        <v>2374845.449025795</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.511011114961382e-07</v>
+        <v>1.549986781565977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.29947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1958991.151947865</v>
+        <v>2148193.532487295</v>
       </c>
     </row>
     <row r="3">
@@ -29283,28 +29283,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1602.561067300171</v>
+        <v>1755.432013587466</v>
       </c>
       <c r="AB3" t="n">
-        <v>2192.694752284627</v>
+        <v>2401.859525185073</v>
       </c>
       <c r="AC3" t="n">
-        <v>1983.427042592995</v>
+        <v>2172.629423132424</v>
       </c>
       <c r="AD3" t="n">
-        <v>1602561.067300171</v>
+        <v>1755432.013587466</v>
       </c>
       <c r="AE3" t="n">
-        <v>2192694.752284627</v>
+        <v>2401859.525185073</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.514543742588582e-07</v>
+        <v>1.550562485459094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.28645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1983427.042592995</v>
+        <v>2172629.423132424</v>
       </c>
     </row>
   </sheetData>
@@ -29580,28 +29580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6433.511215382517</v>
+        <v>6682.341833213132</v>
       </c>
       <c r="AB2" t="n">
-        <v>8802.613871370217</v>
+        <v>9143.074900318179</v>
       </c>
       <c r="AC2" t="n">
-        <v>7962.504758032474</v>
+        <v>8270.472664217685</v>
       </c>
       <c r="AD2" t="n">
-        <v>6433511.215382516</v>
+        <v>6682341.833213132</v>
       </c>
       <c r="AE2" t="n">
-        <v>8802613.871370217</v>
+        <v>9143074.900318179</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337433363526213e-07</v>
+        <v>7.885421598004583e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.05859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>7962504.758032474</v>
+        <v>8270472.664217684</v>
       </c>
     </row>
     <row r="3">
@@ -29686,28 +29686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3723.321142480547</v>
+        <v>3905.688854342821</v>
       </c>
       <c r="AB3" t="n">
-        <v>5094.412248477999</v>
+        <v>5343.935797343601</v>
       </c>
       <c r="AC3" t="n">
-        <v>4608.208693535563</v>
+        <v>4833.918065105922</v>
       </c>
       <c r="AD3" t="n">
-        <v>3723321.142480547</v>
+        <v>3905688.854342821</v>
       </c>
       <c r="AE3" t="n">
-        <v>5094412.248477999</v>
+        <v>5343935.797343601</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.374914844916569e-07</v>
+        <v>1.089555762868198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.466796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4608208.693535563</v>
+        <v>4833918.065105923</v>
       </c>
     </row>
     <row r="4">
@@ -29792,28 +29792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3133.808056792656</v>
+        <v>3299.581377376488</v>
       </c>
       <c r="AB4" t="n">
-        <v>4287.814437157955</v>
+        <v>4514.632807783516</v>
       </c>
       <c r="AC4" t="n">
-        <v>3878.591445260797</v>
+        <v>4083.762588935429</v>
       </c>
       <c r="AD4" t="n">
-        <v>3133808.056792656</v>
+        <v>3299581.377376487</v>
       </c>
       <c r="AE4" t="n">
-        <v>4287814.437157955</v>
+        <v>4514632.807783516</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.121367702767654e-07</v>
+        <v>1.199835275253576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3878591.445260797</v>
+        <v>4083762.588935429</v>
       </c>
     </row>
     <row r="5">
@@ -29898,28 +29898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2848.36409088712</v>
+        <v>3014.137321962401</v>
       </c>
       <c r="AB5" t="n">
-        <v>3897.257410106965</v>
+        <v>4124.075658262978</v>
       </c>
       <c r="AC5" t="n">
-        <v>3525.308632721338</v>
+        <v>3730.479665614744</v>
       </c>
       <c r="AD5" t="n">
-        <v>2848364.09088712</v>
+        <v>3014137.321962401</v>
       </c>
       <c r="AE5" t="n">
-        <v>3897257.410106965</v>
+        <v>4124075.658262978</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.513304691454633e-07</v>
+        <v>1.257739293630067e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.65625</v>
       </c>
       <c r="AH5" t="n">
-        <v>3525308.632721338</v>
+        <v>3730479.665614744</v>
       </c>
     </row>
     <row r="6">
@@ -30004,28 +30004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2657.297352511895</v>
+        <v>2814.858728802526</v>
       </c>
       <c r="AB6" t="n">
-        <v>3635.831469392378</v>
+        <v>3851.413895550569</v>
       </c>
       <c r="AC6" t="n">
-        <v>3288.832816874949</v>
+        <v>3483.840358852429</v>
       </c>
       <c r="AD6" t="n">
-        <v>2657297.352511895</v>
+        <v>2814858.728802526</v>
       </c>
       <c r="AE6" t="n">
-        <v>3635831.469392378</v>
+        <v>3851413.895550569</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.76048103356627e-07</v>
+        <v>1.294256651952929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.591796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>3288832.816874949</v>
+        <v>3483840.358852429</v>
       </c>
     </row>
     <row r="7">
@@ -30110,28 +30110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2498.070064662496</v>
+        <v>2655.546100098557</v>
       </c>
       <c r="AB7" t="n">
-        <v>3417.969669544651</v>
+        <v>3633.435328580644</v>
       </c>
       <c r="AC7" t="n">
-        <v>3091.76344143374</v>
+        <v>3286.665360379283</v>
       </c>
       <c r="AD7" t="n">
-        <v>2498070.064662497</v>
+        <v>2655546.100098556</v>
       </c>
       <c r="AE7" t="n">
-        <v>3417969.669544651</v>
+        <v>3633435.328580644</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929860837722454e-07</v>
+        <v>1.319280499090509e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.8984375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3091763.44143374</v>
+        <v>3286665.360379283</v>
       </c>
     </row>
     <row r="8">
@@ -30216,28 +30216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2400.916178237603</v>
+        <v>2550.265699743585</v>
       </c>
       <c r="AB8" t="n">
-        <v>3285.039436011134</v>
+        <v>3489.386040171502</v>
       </c>
       <c r="AC8" t="n">
-        <v>2971.519882819913</v>
+        <v>3156.363933881468</v>
       </c>
       <c r="AD8" t="n">
-        <v>2400916.178237603</v>
+        <v>2550265.699743585</v>
       </c>
       <c r="AE8" t="n">
-        <v>3285039.436011134</v>
+        <v>3489386.040171502</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.027352701742582e-07</v>
+        <v>1.333683759942952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.5078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>2971519.882819913</v>
+        <v>3156363.933881468</v>
       </c>
     </row>
     <row r="9">
@@ -30322,28 +30322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2397.603495123849</v>
+        <v>2546.782424429239</v>
       </c>
       <c r="AB9" t="n">
-        <v>3280.506876829632</v>
+        <v>3484.620069215153</v>
       </c>
       <c r="AC9" t="n">
-        <v>2967.419904725207</v>
+        <v>3152.052820504111</v>
       </c>
       <c r="AD9" t="n">
-        <v>2397603.495123849</v>
+        <v>2546782.424429239</v>
       </c>
       <c r="AE9" t="n">
-        <v>3280506.876829632</v>
+        <v>3484620.069215153</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.037200364774917e-07</v>
+        <v>1.335138634776532e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.47200520833334</v>
       </c>
       <c r="AH9" t="n">
-        <v>2967419.904725207</v>
+        <v>3152052.820504111</v>
       </c>
     </row>
   </sheetData>
@@ -30619,28 +30619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9344.523560886846</v>
+        <v>9659.839903429278</v>
       </c>
       <c r="AB2" t="n">
-        <v>12785.58938729039</v>
+        <v>13217.01911793223</v>
       </c>
       <c r="AC2" t="n">
-        <v>11565.35068085432</v>
+        <v>11955.60536351911</v>
       </c>
       <c r="AD2" t="n">
-        <v>9344523.560886847</v>
+        <v>9659839.903429277</v>
       </c>
       <c r="AE2" t="n">
-        <v>12785589.38729038</v>
+        <v>13217019.11793223</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.356639305567169e-07</v>
+        <v>6.326576611815278e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.908203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>11565350.68085432</v>
+        <v>11955605.36351911</v>
       </c>
     </row>
     <row r="3">
@@ -30725,28 +30725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4712.413050960214</v>
+        <v>4925.381599414165</v>
       </c>
       <c r="AB3" t="n">
-        <v>6447.731433315308</v>
+        <v>6739.124396819277</v>
       </c>
       <c r="AC3" t="n">
-        <v>5832.368994767354</v>
+        <v>6095.951822807087</v>
       </c>
       <c r="AD3" t="n">
-        <v>4712413.050960214</v>
+        <v>4925381.599414165</v>
       </c>
       <c r="AE3" t="n">
-        <v>6447731.433315308</v>
+        <v>6739124.396819277</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.583829993906559e-07</v>
+        <v>9.560833921318751e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.91731770833334</v>
       </c>
       <c r="AH3" t="n">
-        <v>5832368.994767354</v>
+        <v>6095951.822807087</v>
       </c>
     </row>
     <row r="4">
@@ -30831,28 +30831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3859.917138386516</v>
+        <v>4047.384079172919</v>
       </c>
       <c r="AB4" t="n">
-        <v>5281.308916266588</v>
+        <v>5537.809455108287</v>
       </c>
       <c r="AC4" t="n">
-        <v>4777.268205661523</v>
+        <v>5009.288693076929</v>
       </c>
       <c r="AD4" t="n">
-        <v>3859917.138386516</v>
+        <v>4047384.07917292</v>
       </c>
       <c r="AE4" t="n">
-        <v>5281308.916266588</v>
+        <v>5537809.455108287</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.428397404482639e-07</v>
+        <v>1.078728854656719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.58203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4777268.205661523</v>
+        <v>5009288.693076929</v>
       </c>
     </row>
     <row r="5">
@@ -30937,28 +30937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3474.840237607491</v>
+        <v>3645.249302221032</v>
       </c>
       <c r="AB5" t="n">
-        <v>4754.429712226814</v>
+        <v>4987.590912348418</v>
       </c>
       <c r="AC5" t="n">
-        <v>4300.673613375719</v>
+        <v>4511.582235801507</v>
       </c>
       <c r="AD5" t="n">
-        <v>3474840.237607491</v>
+        <v>3645249.302221032</v>
       </c>
       <c r="AE5" t="n">
-        <v>4754429.712226815</v>
+        <v>4987590.912348418</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.886741291345835e-07</v>
+        <v>1.145288133757281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.16666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4300673.613375719</v>
+        <v>4511582.235801507</v>
       </c>
     </row>
     <row r="6">
@@ -31043,28 +31043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3245.524781553703</v>
+        <v>3415.933756658693</v>
       </c>
       <c r="AB6" t="n">
-        <v>4440.670188570083</v>
+        <v>4673.831266222138</v>
       </c>
       <c r="AC6" t="n">
-        <v>4016.85885829254</v>
+        <v>4227.767369937103</v>
       </c>
       <c r="AD6" t="n">
-        <v>3245524.781553703</v>
+        <v>3415933.756658693</v>
       </c>
       <c r="AE6" t="n">
-        <v>4440670.188570083</v>
+        <v>4673831.266222138</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.163835318186527e-07</v>
+        <v>1.185526869776668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.83854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>4016858.85829254</v>
+        <v>4227767.369937102</v>
       </c>
     </row>
     <row r="7">
@@ -31149,28 +31149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3081.703068406427</v>
+        <v>3252.026702656844</v>
       </c>
       <c r="AB7" t="n">
-        <v>4216.52209333806</v>
+        <v>4449.566403867915</v>
       </c>
       <c r="AC7" t="n">
-        <v>3814.103142675641</v>
+        <v>4024.906031288264</v>
       </c>
       <c r="AD7" t="n">
-        <v>3081703.068406427</v>
+        <v>3252026.702656844</v>
       </c>
       <c r="AE7" t="n">
-        <v>4216522.093338059</v>
+        <v>4449566.403867915</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356472603969613e-07</v>
+        <v>1.213501059543571e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.96614583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>3814103.142675641</v>
+        <v>4024906.031288264</v>
       </c>
     </row>
     <row r="8">
@@ -31255,28 +31255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2962.364341393552</v>
+        <v>3124.159082311814</v>
       </c>
       <c r="AB8" t="n">
-        <v>4053.237582185974</v>
+        <v>4274.612284590557</v>
       </c>
       <c r="AC8" t="n">
-        <v>3666.402276096667</v>
+        <v>3866.649287605094</v>
       </c>
       <c r="AD8" t="n">
-        <v>2962364.341393552</v>
+        <v>3124159.082311814</v>
       </c>
       <c r="AE8" t="n">
-        <v>4053237.582185974</v>
+        <v>4274612.284590556</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.491223808803099e-07</v>
+        <v>1.233069211991355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.38020833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>3666402.276096667</v>
+        <v>3866649.287605094</v>
       </c>
     </row>
     <row r="9">
@@ -31361,28 +31361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2840.917872178357</v>
+        <v>3002.79786444264</v>
       </c>
       <c r="AB9" t="n">
-        <v>3887.06916516565</v>
+        <v>4108.560512222883</v>
       </c>
       <c r="AC9" t="n">
-        <v>3516.092739577931</v>
+        <v>3716.445263337071</v>
       </c>
       <c r="AD9" t="n">
-        <v>2840917.872178357</v>
+        <v>3002797.86444264</v>
       </c>
       <c r="AE9" t="n">
-        <v>3887069.16516565</v>
+        <v>4108560.512222882</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.607944922849006e-07</v>
+        <v>1.250019090520069e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.88541666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3516092.739577931</v>
+        <v>3716445.263337071</v>
       </c>
     </row>
     <row r="10">
@@ -31467,28 +31467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2742.304969638798</v>
+        <v>2895.826660771517</v>
       </c>
       <c r="AB10" t="n">
-        <v>3752.142641416799</v>
+        <v>3962.197792123603</v>
       </c>
       <c r="AC10" t="n">
-        <v>3394.04341388511</v>
+        <v>3584.051195822705</v>
       </c>
       <c r="AD10" t="n">
-        <v>2742304.969638797</v>
+        <v>2895826.660771517</v>
       </c>
       <c r="AE10" t="n">
-        <v>3752142.641416799</v>
+        <v>3962197.792123604</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.695248520346759e-07</v>
+        <v>1.262697048443986e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.52408854166666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3394043.41388511</v>
+        <v>3584051.195822705</v>
       </c>
     </row>
     <row r="11">
@@ -31573,28 +31573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2669.473616609587</v>
+        <v>2822.824715541715</v>
       </c>
       <c r="AB11" t="n">
-        <v>3652.491571109702</v>
+        <v>3862.313310041659</v>
       </c>
       <c r="AC11" t="n">
-        <v>3303.902901866971</v>
+        <v>3493.699548521914</v>
       </c>
       <c r="AD11" t="n">
-        <v>2669473.616609587</v>
+        <v>2822824.715541715</v>
       </c>
       <c r="AE11" t="n">
-        <v>3652491.571109702</v>
+        <v>3862313.31004166</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.74649193626935e-07</v>
+        <v>1.270138458529763e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.31575520833334</v>
       </c>
       <c r="AH11" t="n">
-        <v>3303902.901866971</v>
+        <v>3493699.548521915</v>
       </c>
     </row>
     <row r="12">
@@ -31679,28 +31679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2654.327648283819</v>
+        <v>2807.678747215947</v>
       </c>
       <c r="AB12" t="n">
-        <v>3631.76818905342</v>
+        <v>3841.589927985378</v>
       </c>
       <c r="AC12" t="n">
-        <v>3285.157330308693</v>
+        <v>3474.953976963636</v>
       </c>
       <c r="AD12" t="n">
-        <v>2654327.648283819</v>
+        <v>2807678.747215947</v>
       </c>
       <c r="AE12" t="n">
-        <v>3631768.18905342</v>
+        <v>3841589.927985378</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.762624122763501e-07</v>
+        <v>1.272481124667878e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.25390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3285157.330308693</v>
+        <v>3474953.976963636</v>
       </c>
     </row>
     <row r="13">
@@ -31785,28 +31785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2661.515344585535</v>
+        <v>2814.866443517662</v>
       </c>
       <c r="AB13" t="n">
-        <v>3641.60271223221</v>
+        <v>3851.424451164167</v>
       </c>
       <c r="AC13" t="n">
-        <v>3294.053260398137</v>
+        <v>3483.849907053081</v>
       </c>
       <c r="AD13" t="n">
-        <v>2661515.344585535</v>
+        <v>2814866.443517662</v>
       </c>
       <c r="AE13" t="n">
-        <v>3641602.71223221</v>
+        <v>3851424.451164167</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.767368883497075e-07</v>
+        <v>1.273170144120265e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.23111979166666</v>
       </c>
       <c r="AH13" t="n">
-        <v>3294053.260398137</v>
+        <v>3483849.907053081</v>
       </c>
     </row>
   </sheetData>
@@ -32082,28 +32082,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1486.488163059322</v>
+        <v>1649.977752666184</v>
       </c>
       <c r="AB2" t="n">
-        <v>2033.878683927169</v>
+        <v>2257.572353078927</v>
       </c>
       <c r="AC2" t="n">
-        <v>1839.76815689982</v>
+        <v>2042.112816223772</v>
       </c>
       <c r="AD2" t="n">
-        <v>1486488.163059322</v>
+        <v>1649977.752666184</v>
       </c>
       <c r="AE2" t="n">
-        <v>2033878.683927169</v>
+        <v>2257572.353078927</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.05853567753574e-07</v>
+        <v>1.510003927557631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.81510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1839768.15689982</v>
+        <v>2042112.816223772</v>
       </c>
     </row>
   </sheetData>
@@ -32379,28 +32379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3856.373721691325</v>
+        <v>4054.76665388613</v>
       </c>
       <c r="AB2" t="n">
-        <v>5276.460657219716</v>
+        <v>5547.910619527112</v>
       </c>
       <c r="AC2" t="n">
-        <v>4772.882657653509</v>
+        <v>5018.425816540695</v>
       </c>
       <c r="AD2" t="n">
-        <v>3856373.721691325</v>
+        <v>4054766.65388613</v>
       </c>
       <c r="AE2" t="n">
-        <v>5276460.657219716</v>
+        <v>5547910.619527112</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.898826332836059e-07</v>
+        <v>1.049936947805221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4772882.65765351</v>
+        <v>5018425.816540695</v>
       </c>
     </row>
     <row r="3">
@@ -32485,28 +32485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2584.122567502204</v>
+        <v>2742.973387018521</v>
       </c>
       <c r="AB3" t="n">
-        <v>3535.710500298436</v>
+        <v>3753.057199564232</v>
       </c>
       <c r="AC3" t="n">
-        <v>3198.267252550674</v>
+        <v>3394.870687886543</v>
       </c>
       <c r="AD3" t="n">
-        <v>2584122.567502204</v>
+        <v>2742973.387018521</v>
       </c>
       <c r="AE3" t="n">
-        <v>3535710.500298436</v>
+        <v>3753057.199564232</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.59400832221041e-07</v>
+        <v>1.307927817270464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.58658854166666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3198267.252550674</v>
+        <v>3394870.687886543</v>
       </c>
     </row>
     <row r="4">
@@ -32591,28 +32591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2207.119892946047</v>
+        <v>2365.71468989865</v>
       </c>
       <c r="AB4" t="n">
-        <v>3019.878808786512</v>
+        <v>3236.875206685715</v>
       </c>
       <c r="AC4" t="n">
-        <v>2731.665813702342</v>
+        <v>2927.952379942393</v>
       </c>
       <c r="AD4" t="n">
-        <v>2207119.892946047</v>
+        <v>2365714.68989865</v>
       </c>
       <c r="AE4" t="n">
-        <v>3019878.808786512</v>
+        <v>3236875.206685715</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.203312329488613e-07</v>
+        <v>1.4006581976023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.96614583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2731665.813702342</v>
+        <v>2927952.379942393</v>
       </c>
     </row>
     <row r="5">
@@ -32697,28 +32697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2070.27796958729</v>
+        <v>2213.158455805958</v>
       </c>
       <c r="AB5" t="n">
-        <v>2832.645652207303</v>
+        <v>3028.141036894036</v>
       </c>
       <c r="AC5" t="n">
-        <v>2562.30192680378</v>
+        <v>2739.139506355392</v>
       </c>
       <c r="AD5" t="n">
-        <v>2070277.969587291</v>
+        <v>2213158.455805958</v>
       </c>
       <c r="AE5" t="n">
-        <v>2832645.652207303</v>
+        <v>3028141.036894036</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.406065292459405e-07</v>
+        <v>1.431515305294197e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.16861979166666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2562301.92680378</v>
+        <v>2739139.506355392</v>
       </c>
     </row>
     <row r="6">
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2078.298670422725</v>
+        <v>2221.179156641393</v>
       </c>
       <c r="AB6" t="n">
-        <v>2843.619928938691</v>
+        <v>3039.115313625425</v>
       </c>
       <c r="AC6" t="n">
-        <v>2572.228833966419</v>
+        <v>2749.066413518031</v>
       </c>
       <c r="AD6" t="n">
-        <v>2078298.670422725</v>
+        <v>2221179.156641393</v>
       </c>
       <c r="AE6" t="n">
-        <v>2843619.928938692</v>
+        <v>3039115.313625425</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.412336002654377e-07</v>
+        <v>1.432469648831059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.142578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2572228.833966419</v>
+        <v>2749066.413518032</v>
       </c>
     </row>
   </sheetData>
@@ -33100,28 +33100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5292.275261822745</v>
+        <v>5528.754401350912</v>
       </c>
       <c r="AB2" t="n">
-        <v>7241.124491932743</v>
+        <v>7564.685683358535</v>
       </c>
       <c r="AC2" t="n">
-        <v>6550.041733404463</v>
+        <v>6842.72269884155</v>
       </c>
       <c r="AD2" t="n">
-        <v>5292275.261822745</v>
+        <v>5528754.401350913</v>
       </c>
       <c r="AE2" t="n">
-        <v>7241124.491932743</v>
+        <v>7564685.683358535</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.906540580074222e-07</v>
+        <v>8.817937596663889e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.45572916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6550041.733404463</v>
+        <v>6842722.69884155</v>
       </c>
     </row>
     <row r="3">
@@ -33206,28 +33206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3258.792069856443</v>
+        <v>3438.278253513986</v>
       </c>
       <c r="AB3" t="n">
-        <v>4458.823077737343</v>
+        <v>4704.403992589179</v>
       </c>
       <c r="AC3" t="n">
-        <v>4033.279261195416</v>
+        <v>4255.422278208763</v>
       </c>
       <c r="AD3" t="n">
-        <v>3258792.069856443</v>
+        <v>3438278.253513986</v>
       </c>
       <c r="AE3" t="n">
-        <v>4458823.077737343</v>
+        <v>4704403.992589179</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.822392924956899e-07</v>
+        <v>1.167813405050512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.87499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>4033279.261195416</v>
+        <v>4255422.278208762</v>
       </c>
     </row>
     <row r="4">
@@ -33312,28 +33312,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2774.922921778024</v>
+        <v>2937.991411783483</v>
       </c>
       <c r="AB4" t="n">
-        <v>3796.77196253618</v>
+        <v>4019.88946463571</v>
       </c>
       <c r="AC4" t="n">
-        <v>3434.413375234501</v>
+        <v>3636.236856081025</v>
       </c>
       <c r="AD4" t="n">
-        <v>2774922.921778024</v>
+        <v>2937991.411783483</v>
       </c>
       <c r="AE4" t="n">
-        <v>3796771.96253618</v>
+        <v>4019889.46463571</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.516688154982662e-07</v>
+        <v>1.27146548242186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.46028645833334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3434413.375234501</v>
+        <v>3636236.856081025</v>
       </c>
     </row>
     <row r="5">
@@ -33418,28 +33418,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2518.33478719675</v>
+        <v>2673.407648249771</v>
       </c>
       <c r="AB5" t="n">
-        <v>3445.696756932481</v>
+        <v>3657.874286757029</v>
       </c>
       <c r="AC5" t="n">
-        <v>3116.844294516487</v>
+        <v>3308.771898687606</v>
       </c>
       <c r="AD5" t="n">
-        <v>2518334.78719675</v>
+        <v>2673407.648249771</v>
       </c>
       <c r="AE5" t="n">
-        <v>3445696.756932481</v>
+        <v>3657874.286757029</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875910469648164e-07</v>
+        <v>1.325094165931383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.90104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3116844.294516487</v>
+        <v>3308771.898687606</v>
       </c>
     </row>
     <row r="6">
@@ -33524,28 +33524,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2336.844407300894</v>
+        <v>2491.831927499343</v>
       </c>
       <c r="AB6" t="n">
-        <v>3197.373612368485</v>
+        <v>3409.434375070836</v>
       </c>
       <c r="AC6" t="n">
-        <v>2892.220762345966</v>
+        <v>3084.042743485146</v>
       </c>
       <c r="AD6" t="n">
-        <v>2336844.407300894</v>
+        <v>2491831.927499343</v>
       </c>
       <c r="AE6" t="n">
-        <v>3197373.612368485</v>
+        <v>3409434.375070836</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.103317313105875e-07</v>
+        <v>1.359043976780548e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.98307291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2892220.762345966</v>
+        <v>3084042.743485146</v>
       </c>
     </row>
     <row r="7">
@@ -33630,28 +33630,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2268.096175247769</v>
+        <v>2423.083695446218</v>
       </c>
       <c r="AB7" t="n">
-        <v>3103.309248315452</v>
+        <v>3315.370011017802</v>
       </c>
       <c r="AC7" t="n">
-        <v>2807.133769177993</v>
+        <v>2998.955750317174</v>
       </c>
       <c r="AD7" t="n">
-        <v>2268096.175247769</v>
+        <v>2423083.695446218</v>
       </c>
       <c r="AE7" t="n">
-        <v>3103309.248315452</v>
+        <v>3315370.011017802</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.179790410905815e-07</v>
+        <v>1.370460727331596e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.68033854166666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2807133.769177993</v>
+        <v>2998955.750317174</v>
       </c>
     </row>
     <row r="8">
@@ -33736,28 +33736,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2271.251606425937</v>
+        <v>2426.239126624386</v>
       </c>
       <c r="AB8" t="n">
-        <v>3107.62664846122</v>
+        <v>3319.687411163571</v>
       </c>
       <c r="AC8" t="n">
-        <v>2811.039122713359</v>
+        <v>3002.861103852539</v>
       </c>
       <c r="AD8" t="n">
-        <v>2271251.606425937</v>
+        <v>2426239.126624386</v>
       </c>
       <c r="AE8" t="n">
-        <v>3107626.64846122</v>
+        <v>3319687.411163571</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.183815310790021e-07</v>
+        <v>1.371061608939545e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.6640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2811039.122713359</v>
+        <v>3002861.103852539</v>
       </c>
     </row>
   </sheetData>
